--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/33_Gaziantep_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/33_Gaziantep_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{157F2808-C460-43C7-9DA5-51F46B7551F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56696E71-8B83-45F7-9EAF-BA2C5C75FA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{D3E86100-9C54-4D48-B353-11C5A01B900F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{2D4BECC7-AD52-4854-8584-E1150B2805CF}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -936,13 +936,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{CBAC31DA-378E-430E-8B93-C0AB50C20D12}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{89DE3D48-EF7C-4D1D-81B5-231F256F5EA9}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{262B14B9-0BFC-4178-83DC-D07AC39E69D2}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{390E30A6-0AA0-41D7-AC21-1A773B849A31}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{738B45DD-7A7B-4245-8A05-6B8C3ADAEBA5}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{A334FD40-2742-47AD-AC22-9CF9F9881925}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{F1C115FA-0976-4AC4-A17E-A09C86B48DC7}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{9AABF8E3-7309-49F1-8BED-BEE6BA2F0A23}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{69BD751D-7824-45EE-BBF5-E701151DB67E}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{9FD15980-CF3E-4DF2-AC8B-8449ABF18455}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{D0DE4053-2827-4A64-BE73-C7A69B41E667}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{9A818EA6-03AD-42A9-A328-09D3FE32B8DB}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{E0A72D18-E09B-4570-90B9-146A0C43E655}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{E341F8CE-1012-4B52-AD92-314F3F474FB5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1312,7 +1312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C82D5F-FEEE-427C-A923-1FDAF589D957}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E253243-C8A1-4597-8442-BD8C2C095362}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2565,18 +2565,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8EDD727A-E428-40C8-8EE5-D302FB4584AB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{01E91F0E-1F77-45B6-9FD4-C18353C457B8}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{78F6D837-40E9-497E-AE0C-5EF041A4B2CC}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{029C99AA-E77D-4516-BCF5-8902089E0936}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{587EBFE1-28A8-433D-948A-DEF9B02A8779}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{83FC0C51-70EA-44AB-8D23-66BEA2C74B85}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EE010988-F62A-47DA-A420-D8E8D48E00E5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{81B594DC-04F6-4BAD-83D6-ED3AC4040EDB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7ABC9A1B-07F2-4077-8FE3-348981F0DF07}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{78F812B3-708D-4888-BA85-F9B86A16EEA7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CF795028-1DDF-461E-B82B-10BC859DDC77}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FE27769D-9660-45D8-9B77-B46A9EAEA94A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DB87D2B4-39EB-4B65-B884-93CA1A631F3B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5B41A9C1-5BBF-4BF6-AB51-496F11B7DA0F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7DF1E508-3466-4520-B2C4-E1BC3BE61F18}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{329A65C2-A765-4FE2-813F-14D8CA56196F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{22A40868-B020-4520-ABD3-971F37ED434A}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{08197223-C453-43D3-8AC5-BCF1266C0832}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{97FB234D-1F2E-447F-A70D-983655F27F12}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4A24A790-E4BF-4795-AD30-9B34E8368B90}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0A49E9E8-BDE4-41C6-936E-2DCCECD34C77}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CFC39CB6-8AF4-4468-B076-D433BF9FCC9C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5390B5FA-0F0D-4915-955A-69B92402A2A2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{75FB1F05-C87A-4168-B30F-3BE14F780AFF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2589,7 +2589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE0CD7E-4A00-4F5F-B257-4F1FCA7E378C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5FDE63-D751-498A-80D1-3F261150CA96}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3837,18 +3837,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3777C975-B7B8-47CC-A3AF-8B2B4450DD50}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{424D62BD-DCDB-4001-8B9C-6DBF062D452B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DE730F85-1BF3-40B6-AAF5-3A01609A1EC4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EDD19FF7-8F37-45C9-AC3A-36EB0D251B11}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{13A46598-5392-4321-8C5C-6DE85E617480}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{00C3AA96-84B9-4166-9162-68E04AF76049}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1ED5C5E9-8019-409B-B480-298ADA65D0CE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{184EA1B5-7CDD-4AE6-BC29-27549E579858}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E3A2AA1C-F4F2-48A3-9EAF-098E52978A0C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{930C016A-097C-4270-AC5D-5EA5A16D8488}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FB0F98F4-D21F-4506-8832-408496682C7C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2E16E6AF-42DC-4316-BC64-9C258A29998A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CF142D88-9A2F-418C-9C4E-A99FDADF91B8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CBD2E85E-33F3-4191-AE60-ED26E6320029}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B23DD23A-5F7D-48E1-A9AA-B6D1714D4BB7}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2AE6E0DF-A137-4D19-95E9-1AA4C61BE61A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{48E12913-3127-482C-8842-1E87125DBA1F}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EE199C0C-944B-4088-9FCE-0D0580B1A099}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{45702B0D-8959-4F0D-BDC3-C02C035C6175}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CFCD6CFE-8012-4485-8861-269813A9C6C8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7BBEDA77-D0A1-46BC-BD0B-B7D7E33ED129}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A5047865-CC9E-4D09-932A-C216B7734892}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{86CC8FFD-2857-41D3-A9E5-CDC082653938}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CA70167A-CED8-4E2C-B274-02A0813CD2FA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3861,7 +3861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9594EF1D-5315-4E5F-A906-51445A5150EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FB05C8-368F-42F5-8A42-250A2F70BE45}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5105,18 +5105,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1B4882AF-BD5D-466D-BB4F-F880BBAC063E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9C79AF88-4861-4468-82F1-EA59FC7C34DC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{24F58846-BC65-469C-A530-0A94416747E9}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9E13217E-9447-4DCA-9F96-793E03748C69}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FA32F84F-680A-455D-AF00-86923B9A67E1}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2AE774B7-395D-47CC-B697-48C6756C4D55}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BB01DBD5-907B-4F72-B184-84E38420D880}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{86C6DE0B-9B87-4835-BF88-9556051CA9D8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2A32E0E0-05BA-4C13-ACE5-9BBECA05433D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AA218686-180E-4948-9E32-97F1ECDDB8E5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8881A216-DA50-4B25-A455-9640C35AFCD4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E5F817E7-6864-4CF0-B7A6-1E0C749C82ED}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6433AD2B-8B95-4AAF-BB9E-60112411717E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DC336B0D-3FDF-4FF5-B0A3-8B8D4B179402}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{950B77B7-0426-4607-A3F2-06001CE05485}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F497E593-2732-423C-AC7A-F1479A45375A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C98DB26B-A645-4BA3-BB16-88BAE8DAD4FB}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BF1A3EA5-3EAF-44C0-8893-2B0729F30C58}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{941C08D3-5FFF-48D0-A73C-68870A2370C5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A43BB942-7ABF-41EF-B753-2842AA9E504C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6AC4DA07-D329-4F81-A3F5-142B880FFC25}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{22F74853-5601-482D-832D-6DA4982CE622}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0BEE8A35-4549-4173-9BC1-BB13A0F8479C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BB9AB7DE-BA63-42DD-9D7E-4A5FD984F06A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5129,7 +5129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523814A0-2228-4702-A8BC-26910291D25C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33330163-7D72-4D74-B194-89255F543795}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6373,18 +6373,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E30C30CE-0531-4861-9524-0EAED8305830}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2265E2CF-7FB2-4191-ADDB-8A33F116A06A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D0CD829F-1C12-4D57-886B-DE97E12804AC}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{64D809B1-049B-4040-B805-B281B8D51DAB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{18B7E3C1-D4E9-43EB-A40E-8F591CF9096F}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{290C5BC3-F475-4BF7-8C46-69127BAD9B61}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{621E9655-DA7F-46C4-B405-FC22870021A8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E78330A4-7B01-414F-B10B-8D47161DA6B1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{02D3BFBC-5E64-4508-B34A-84BE405356A6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D7463160-F934-487D-8038-1150D66AA0E5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0DF75AAF-D8A8-4CA5-A035-2228833EB32F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7B26976B-30E2-4675-A35B-1AF8814BB9F0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{42206F8B-6909-4263-B7A0-671B81063C5C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0F964732-3082-461A-A0F1-024DD2998A96}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EFC6CE49-7A61-4C0B-A1F3-F95364C0FEF6}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E91CFC8E-3146-48D9-9AB5-6CA89191007F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{815F82B0-89DB-46D4-87C3-53CF1BBF5A9B}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6004AAA3-DF76-4022-B9B7-F770724DEF34}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B322BE10-4A07-42CE-93E9-9357DDEE4DA9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CEC583A2-E0A1-4ABF-AF79-76F20101D205}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{12A0C549-2F2B-496B-A3DA-AF6153BDEF87}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1A881671-AA3E-420B-801F-99A9446E41A8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D0B0FD32-C2D7-481C-9116-F8818A23C825}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8BB91142-4A19-4B8C-98D3-82FDCF45398A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6397,7 +6397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8C1ACF-7465-4128-9A5B-EB1DA07713F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79DA3C1-4997-43F2-AA2C-5996EF0B8EBE}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7652,18 +7652,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{39E07D76-3203-4399-B330-A260E77C90AC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{21C00F9A-D3DD-4DB9-B20F-840A89F2A5E0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8304FFFF-7FAD-4628-A526-FAEF8EDA6EB1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A3174B36-F686-451D-81AF-1C40210353A8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2D19D179-EC2D-46AD-AB11-3E16E0C5A41D}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{97870685-E8C5-4BE7-ADEF-DC9786A35D2B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{72FDF7E7-1177-42F9-BA50-8BA1CF716541}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{813940B0-B415-4ADA-B806-CBE7999B05C7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7D1A56D7-8021-4BD9-AB1B-E1D5CFB1370B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2B1DACC0-FBC6-4316-A011-E810EEA04B5D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5E319246-9F71-4708-8E89-2BD75E7E102A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{61367D6B-3B83-4F07-95C1-4D8C53EDCC53}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{16AA17F2-9418-42D9-8B08-5A4030F59E23}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F33D6E89-ED17-491B-A4D4-285C437D2C36}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{81EF387A-A9FC-45C3-95B0-391F8C16C319}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{08701713-CF63-4714-B0A2-6D7407E4247C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{98993F90-A6A9-42B4-AFDA-DF0005419E98}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{95A2467E-51C5-4B6B-9D84-D0C1BEE001D0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9EEBBE00-5F62-4327-BBB1-00A66C22A396}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3A64AFE4-7824-4173-A35D-7F260AA912A2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A51EAF62-EE84-4503-ABD3-95FE4FCC2E4A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E6D69023-AF39-4250-848E-1579D369D985}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0ADE1934-1668-4DC7-B908-B7D92920B576}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{18B0B320-6F41-43F2-AD36-F018028A0010}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7676,7 +7676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211D9292-AFBF-4FE2-B0EE-D35446628D1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186604BF-DBEF-4E22-9011-7690BC00EE20}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8931,18 +8931,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D63863B1-A37F-47E3-A76F-56B9549E6058}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{11797705-B1CC-4ABF-B507-BB839CF273F8}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EAA7AD7E-B960-4896-B059-375F94620F19}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C2A3A80E-D819-4367-B4A4-130C88A20724}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{600EA95C-A0EE-4FE3-B869-DAAF8815240A}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E48BCB06-88DA-4FBF-98B8-A8FB8AB505DA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A022C03A-46FB-487B-88BA-E3CFF62C4DA8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{427B4190-B5E7-4770-8C53-1374C452605C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9777FAF8-21D2-4BD7-AAC8-4398ADA28A51}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1709A072-2478-42BB-9F06-CA4BF1F28C58}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{38C48BCE-587A-4F1F-9674-4CFFEFDA134A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F817F350-47E9-4EF8-B483-DA09CCD10657}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B4C710C1-CAA4-49D6-A8D3-D4B92D99E589}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D143E27A-FE4E-481F-ABB4-8EE7A11F4959}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E596BA50-D76C-4C61-918E-44BA51A5F66B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5796209E-6800-4B04-8505-1CFB48369273}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F1791B73-865F-4129-BCB6-AC6BBF072D9A}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7474A8BF-5282-4449-ACC0-5023F5AD39C0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{216C6BB6-A105-446E-8231-FBB4CDA17448}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{42C52F22-9369-418A-A8FD-BA98BBD8B0C8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{86724928-9E33-43C8-9160-BF253165253A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C68C343E-9741-4685-A543-168BA9E4D92F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6A219938-1276-4A17-BF42-7696A2070B2E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{07BF643E-F412-4EF4-BA57-01E10706A1B5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8955,7 +8955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68195A33-A2D1-48E6-9DF8-9954F1EBCD41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6177EC58-40BC-4DCC-B183-52AF2EA83731}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10210,18 +10210,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D02E7A79-F4F7-4884-B3EB-2576DC78BF64}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D1B48020-78AE-4521-AA66-56FB27533646}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{59B9DA17-91F5-40D8-8B0F-5F9AB378E8AA}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A5E4B5FC-89ED-4A42-B01B-7406D5B09A69}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{56DA1A6E-3A8D-4447-BFE5-8D97E38EA9EA}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8988D2EE-E869-487A-BB84-91993EFD47CC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{561193B9-1728-4FBA-A347-A0BF1FD870C6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{57A85A43-582B-4032-B68F-AF40590BC323}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{85AC078C-1B1C-45E1-B09A-45579C8677E9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{39A839BF-52BB-4D28-95BA-DF31A83E1F72}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{845FA53C-1EC6-4C8F-A7A1-E31A4FF1BEB0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DCCB9FCC-EAC9-4AD1-A91D-BB4D587C2417}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{629C67BA-5813-4378-AE39-A09E438F66EA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6B1179B8-694E-4406-927E-0E74CCC24406}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{43943E51-BF28-4D69-9C0D-673DBEB8F15A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0B6F24DD-6403-4B73-ABE2-119EE27553A2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1F008546-FBE3-46A2-8E75-4DE897FAB4B2}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{47FF1141-A310-466F-A00D-BDA069280933}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CD1ED744-F00E-4E4E-81C1-4EA366C067E2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BCAD5DE4-525B-4E35-9718-DCB1C995DC8B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{84803C94-BDFB-4A63-B726-BC7C1B1F7230}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{74150626-A093-4DE4-97A1-87FA41938962}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A0A981EC-EFCD-4708-AC4E-0B3BA5EB9990}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{851884D4-CCB0-404D-AE77-713F6BFA4A53}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10234,7 +10234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED50ED1-C2B1-49C8-B174-A2D8C0CEB6E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FEEB11-4BC7-44E1-8482-DE9E30840CAA}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11490,18 +11490,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3BA41F31-10C6-4262-B7C0-DB6EA5291140}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B26771F3-9186-46C4-8B22-687D085AC639}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5742DCDB-24DC-43FA-B6FB-54D04FC178EC}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6D93FE99-4F42-49A2-9728-73386307A3C7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9FD0DF59-7C60-4B07-824A-41DE1C82B246}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{78C24BCA-9275-41A0-BB7D-979B4434A80C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{38F46EA9-B2BB-4CA6-9BB9-2856DEA2D6F7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{112667DD-2C55-4426-965E-C9044899C854}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C25E5FE1-638E-4A2A-93F7-4A4B7686F846}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E02696E1-2DDC-43E5-9544-BCCE525C5FD8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3F2383DB-641C-4ECA-BC30-92936C91FDE6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FB103057-A154-4487-922D-EB703ABEE475}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9D82A227-2925-460A-97A0-5A8D00347E1C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BE33D875-61F4-415A-92F2-AC08765025B9}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EA6C0F8A-62C4-4DA1-B019-372DA1B36F9D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{820A1437-041E-47D3-890B-6EB33D7C3C07}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0BA895D3-7CD7-432C-B76B-9C674481A768}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E1F3500D-1E81-47CC-8EA9-D9DAFC1D442B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{62093955-15A8-4AA4-9032-4F165FC46E12}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EC2912D9-EC28-4E0C-B882-9B84D34BAE56}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9D0385F2-95DA-47F4-9A0E-6C5F505A460E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9B9FF739-3DF4-4697-9446-C8859C33EA89}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6CBFAFEA-EE7C-425E-BB90-6DE6DA23E096}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C8866916-36DD-4583-B817-4CB56AD0CAD4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11514,7 +11514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A984EA-7334-47C1-86FD-DBC360C21305}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE96161-B310-43D0-AE3D-38299EF3EA03}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -12766,18 +12766,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C7564078-FD61-41AD-A569-8AD813C11C8A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C23C09FB-2EA4-461A-BDEF-F4520BE9CE7D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5AFCC2EF-66EC-4EE8-B728-0769B90D2A73}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{513FB002-2F67-43B0-AA9B-63BD925D0584}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{84BC3503-6F65-4DB4-8910-09E862985B8B}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0C3522BD-5D50-44BE-B6F1-DE222115AC78}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{02B1548A-7AD0-4B76-AA11-D0E766F1E345}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DADFB354-4028-4E0B-B966-7F149DEF2126}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8718AEB3-8B3F-4F41-A239-6206A44AA8E1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{818B654A-B47A-4CC1-8735-F15F416FFEEB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4A5FC542-4029-4382-BF33-0FD5F54FE04A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{50092668-9A5F-4633-9271-6B129F311642}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{27BEF268-3071-4E76-A91B-8261B42067EF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4F34D149-6FEF-4D3D-B81D-8DE092CD7116}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A033DF00-F127-428F-B8C3-3A42173DBC5F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0817054C-3E9A-47E4-92BF-0A637DC0ACF4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{282F4840-17C2-4076-A7F5-70FC0BAC9136}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F3D0A1DE-5BA2-4540-9202-757F2B389DEB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{68D49833-1DEA-47C0-B6D9-1E9D61B5019B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{06CC1C2F-ABE9-467F-BD4A-DC52AF2FBC76}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9EA556BE-F79A-4CCC-86D3-A14711669CA8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{26D29EDE-79EB-4D2E-BD5F-061021699E58}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3B9E0D6F-F4F1-4FDE-B65F-3560100D8F25}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{707D553C-EE48-4664-9CF5-840494B50A5C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12790,7 +12790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EF4AB6-17AC-40BA-9F81-54494E8D699C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E2C85B-26C4-465B-B44B-6E1FD103BBD1}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -14042,18 +14042,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4BFF27A7-581C-453C-8DA6-DFE09FEC3489}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1F982DB6-295A-4172-B87E-B2EDA4559224}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4399D4AE-E84B-4B91-ACC8-2746D0CA9C71}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E767C4D6-5438-496C-8A2F-2CA5AB4E96C4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C7E72909-6D83-4C9C-8C80-66B59B23EB4B}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F047CC54-6342-47DA-8CAF-C0B99EBE8B7C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5FE8B8F2-1D58-4F5A-A595-2272569BC879}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1A642AF0-07DB-4B68-9947-97B7BD7D73D5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DEAF4961-D025-4FF9-8A27-1B6084435F6D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F96ADB44-52D1-45C9-A72F-29FD3DDC684F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{36FA4462-9072-43A1-A8A7-0DB9D920563A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8F424ADE-6AAF-44FA-9A43-33E38E4F92F0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A8586CFB-8718-498F-92C9-C157A75D2438}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2CF42827-D461-4646-86F9-579A2366B40F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{291955F8-8438-4D00-A4D6-7AC2F703448D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3685DA8F-349B-4C7F-90E4-402E929ABD7F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{83C6514C-4153-47DA-AA97-11950D96D7DA}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E5F42298-82A9-4E00-AD93-5F67B9F0AF81}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AE16411F-5DEC-40EB-88E4-54C639D60EA5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3E934532-20BD-40D4-A707-264AF29C8DCA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{84B2E1EB-7385-457A-A7C4-6DF1E86D4848}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1BDF6D36-E376-4CDF-86EB-07E68EABC434}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CFD9F2CA-64C1-48E6-B853-3DF531C45B93}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{04A3666F-14CD-4680-93EC-A63FC96B123E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14066,7 +14066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376810B8-965A-437B-AC81-261C0DE5AB47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E6929D-14D0-4B09-AC53-07340CE30B59}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -15314,18 +15314,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0937A474-0B8F-446F-94A9-D6A1F25DA46A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2C4A94EA-D0E5-4531-A115-859199632443}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A1102D3E-F21F-4B64-ACC7-04134696CBC8}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{144B5A48-2FEC-4DF6-B2E7-BB6FB5E67468}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6EB016FC-2739-4421-8B4E-946338AA6CD0}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F833EC61-825E-4642-938E-E8B06B70E54D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1EF52D6C-8966-4F53-9C23-509234D20977}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{237C3695-CB69-45A2-97C9-06AA1A927585}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A8B54885-C8AE-489E-978A-8DD20A76B1F9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{49ACB827-DFB0-4279-A0B4-CD27E0BF2254}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8E0CE996-C201-4A89-9CFB-0F412F96D99D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AFCB71D1-9C1D-40E7-A9F1-71889AF68948}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{97CB0625-A9D9-49E1-ABD6-AAB8CEDF3391}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{41F7BFAD-DAA0-421A-B740-7A206EBA4371}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0DF8B1A3-06E1-40BA-9002-412EAFA16F10}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{60D31561-25A1-4E4C-8CDD-8C006B9C9454}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FE67255B-8A44-45C5-8BDC-E82CEE53F046}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{62BFD7CB-60D6-4276-9618-08DFCEBDC59B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{80B70DC1-4C70-472A-949F-ED172774C11F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{57FFFB8D-A005-42B4-B608-2585BFC34F33}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{34039017-5A6C-4FCA-8189-DE3C35798E52}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3C254874-AEF2-4318-903C-13C9BF201244}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D0A7F27B-767E-4567-A7C4-CDDF867F6261}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DABD212E-FC17-4916-A96B-F44C0AE257C9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15338,7 +15338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93CD1310-FE28-4647-8166-ABB334CB9C03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD056C00-2084-41D4-9B39-B8DA9EC176C5}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -16586,18 +16586,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CEA355BA-CD14-4124-8E50-3C3FEB0D3374}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4C7ABB11-4744-42FA-B2DF-873412754436}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2BDE8391-B26A-4E87-A1A8-6A6C740C7D11}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C6609324-8986-428D-9112-A20D2DAFA3DB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5BFA4B2C-3838-4AE7-9A63-8502DE13C956}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{383F5995-F265-437A-BD4F-27ECDD5AA94B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{085E42C7-EF22-41B2-ADFA-6CB7AC2501BC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6778D7DC-6BC9-4C25-8165-FAD2A5F6165C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E42F9D5D-A271-47DC-BBDF-5203FA7B7918}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B5C13F98-AFC4-42E2-B885-2D38CEEE14B6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E89237DC-1853-45DF-B94F-6EE2D1AD4D83}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{100DE68A-390C-41D3-BF3F-8848CF54A828}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2499DB3A-DC43-4CA7-B9EF-BF74EF5989DE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{34B215AA-CCE7-40F4-969D-2B2C24F5471E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{833EAF96-0890-4667-B533-39B079D55E67}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{938630BC-A015-40FB-BBB5-09DE97E5584D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4586E6A1-C2DC-49D2-91FA-6539283053C2}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6D3715A3-AE3C-4B75-B216-ECBA6D866546}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{60C8FDCC-DCA7-49F4-91D2-64AA798DB065}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FC663D36-41D9-40E7-91C9-B40723310F21}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{805E2FE0-F0C2-4336-882D-DD28460E49D4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EAE36AE9-1B5D-4527-8C82-A62D61DC2207}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AF55CA77-3D6E-4D96-837E-EE4F3276C811}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3EBE014D-7713-458F-84D1-9D5056005AA4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
